--- a/Document_DATN/10. ProductSprintBacklog.xlsx
+++ b/Document_DATN/10. ProductSprintBacklog.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\Document_DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89E883A-BAAB-4721-B063-59AB20E680CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Total" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -560,7 +572,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
@@ -939,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1020,67 +1032,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1091,17 +1065,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1109,11 +1111,14 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1723,7 +1728,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1783,7 +1787,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2178,7 +2181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3833,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR96"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -3865,10 +3867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="35" t="s">
         <v>170</v>
       </c>
@@ -3878,10 +3880,10 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="61"/>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3891,11 +3893,11 @@
       </c>
     </row>
     <row r="3" spans="1:44" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="45" t="s">
+      <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="42" t="s">
         <v>171</v>
       </c>
       <c r="E3" s="15"/>
@@ -3904,22 +3906,22 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="45">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="42">
         <v>45668</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:44" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:44" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -4000,10 +4002,10 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5">
         <f ca="1">SUM(D8:D11)</f>
         <v>150</v>
@@ -4144,18 +4146,18 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="48" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="20">
         <f>H15-I15</f>
         <v>10</v>
@@ -4273,16 +4275,16 @@
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="48" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="20">
         <v>4</v>
       </c>
@@ -4399,16 +4401,16 @@
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="48" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="20">
         <f>H17-K17</f>
         <v>4</v>
@@ -4422,7 +4424,7 @@
       <c r="J17" s="21">
         <v>0</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="20">
         <v>0</v>
       </c>
       <c r="L17" s="20">
@@ -4526,18 +4528,18 @@
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="48" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="20">
         <v>1</v>
       </c>
@@ -4654,16 +4656,16 @@
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="53" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="20">
         <v>1</v>
       </c>
@@ -4780,16 +4782,16 @@
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="48" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="20">
         <v>1</v>
       </c>
@@ -4906,16 +4908,16 @@
       </c>
     </row>
     <row r="21" spans="1:44" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="20">
         <v>3</v>
       </c>
@@ -5032,12 +5034,12 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -5079,16 +5081,16 @@
       <c r="AR22" s="20"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="48" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -5104,7 +5106,7 @@
       <c r="K23" s="21">
         <v>0</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="20">
         <v>0</v>
       </c>
       <c r="M23" s="20">
@@ -5205,16 +5207,16 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="53" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="20">
         <v>2</v>
       </c>
@@ -5233,7 +5235,7 @@
       <c r="L24" s="20">
         <v>1</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="20">
         <v>0</v>
       </c>
       <c r="N24" s="20">
@@ -5331,16 +5333,16 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="48" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="48"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="20">
         <v>2</v>
       </c>
@@ -5353,13 +5355,13 @@
       <c r="J25" s="20">
         <v>1</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="20">
         <v>1</v>
       </c>
       <c r="L25" s="21">
         <v>0</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="20">
         <v>0</v>
       </c>
       <c r="N25" s="20">
@@ -5457,16 +5459,16 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="20">
         <v>2</v>
       </c>
@@ -5488,7 +5490,7 @@
       <c r="M26" s="36">
         <v>0</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="20">
         <v>0</v>
       </c>
       <c r="O26" s="20">
@@ -5583,16 +5585,16 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="49" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="20">
         <v>2</v>
       </c>
@@ -5614,7 +5616,7 @@
       <c r="M27" s="36">
         <v>0</v>
       </c>
-      <c r="N27" s="44">
+      <c r="N27" s="20">
         <v>0</v>
       </c>
       <c r="O27" s="20">
@@ -5709,16 +5711,16 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="41"/>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="20">
         <v>2</v>
       </c>
@@ -5740,7 +5742,7 @@
       <c r="M28" s="36">
         <v>0</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="20">
         <v>0</v>
       </c>
       <c r="O28" s="20">
@@ -5835,16 +5837,16 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="53" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="48" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="48"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="20">
         <f>H29+N30</f>
         <v>10</v>
@@ -5962,12 +5964,12 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -6009,18 +6011,18 @@
       <c r="AR30" s="20"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="51" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="20">
         <v>1</v>
       </c>
@@ -6137,16 +6139,16 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="53" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="51" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="20">
         <v>1</v>
       </c>
@@ -6263,16 +6265,16 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="49" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="20">
         <v>1</v>
       </c>
@@ -6389,16 +6391,16 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="51" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="20">
         <v>1</v>
       </c>
@@ -6515,16 +6517,16 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="48" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="48"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="20">
         <v>2</v>
       </c>
@@ -6641,16 +6643,16 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="53" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="48" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="48"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="20">
         <v>2</v>
       </c>
@@ -6767,16 +6769,16 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="53" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="48" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="48"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="20">
         <v>2</v>
       </c>
@@ -6893,16 +6895,16 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="53" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="48" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="48"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="20">
         <v>3</v>
       </c>
@@ -7019,8 +7021,8 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
       <c r="E39" s="38"/>
@@ -7066,16 +7068,16 @@
       <c r="AR39" s="20"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="49" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="51" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="20">
         <v>2</v>
       </c>
@@ -7192,16 +7194,16 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="53" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="51" t="s">
+      <c r="D41" s="47"/>
+      <c r="E41" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="20">
         <v>3</v>
       </c>
@@ -7318,12 +7320,12 @@
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -7364,16 +7366,16 @@
       <c r="AR42" s="20"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="48" t="s">
+      <c r="D43" s="47"/>
+      <c r="E43" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="48"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="20">
         <v>8</v>
       </c>
@@ -7490,18 +7492,18 @@
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="48" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="20">
         <v>2</v>
       </c>
@@ -7618,16 +7620,16 @@
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="53" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="48" t="s">
+      <c r="D45" s="47"/>
+      <c r="E45" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="48"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="20">
         <v>3</v>
       </c>
@@ -7744,12 +7746,12 @@
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -7791,16 +7793,16 @@
       <c r="AR46" s="20"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="53" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="48" t="s">
+      <c r="D47" s="47"/>
+      <c r="E47" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="20">
         <v>2</v>
       </c>
@@ -7917,16 +7919,16 @@
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="48" t="s">
+      <c r="D48" s="47"/>
+      <c r="E48" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="48"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="20">
         <v>2</v>
       </c>
@@ -8043,16 +8045,16 @@
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="49" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="48" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="48"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="20">
         <v>2</v>
       </c>
@@ -8169,16 +8171,16 @@
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="59" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="48" t="s">
+      <c r="D50" s="65"/>
+      <c r="E50" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="48"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="20">
         <v>3</v>
       </c>
@@ -8295,16 +8297,16 @@
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="47"/>
+      <c r="E51" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="48"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="20">
         <v>3</v>
       </c>
@@ -8421,16 +8423,16 @@
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="48" t="s">
+      <c r="D52" s="47"/>
+      <c r="E52" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="48"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="20">
         <v>9</v>
       </c>
@@ -8547,16 +8549,16 @@
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="48" t="s">
+      <c r="D53" s="47"/>
+      <c r="E53" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="20">
         <v>4</v>
       </c>
@@ -8673,16 +8675,16 @@
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="48" t="s">
+      <c r="D54" s="47"/>
+      <c r="E54" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="48"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="20">
         <v>5</v>
       </c>
@@ -8799,16 +8801,16 @@
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="53" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="48" t="s">
+      <c r="D55" s="47"/>
+      <c r="E55" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="48"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="20">
         <v>5</v>
       </c>
@@ -8925,12 +8927,12 @@
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -8973,16 +8975,16 @@
       <c r="AR56" s="20"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="53" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="48" t="s">
+      <c r="D57" s="47"/>
+      <c r="E57" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="48"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="20">
         <v>5</v>
       </c>
@@ -9099,16 +9101,16 @@
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="48" t="s">
+      <c r="D58" s="47"/>
+      <c r="E58" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="48"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="20">
         <v>5</v>
       </c>
@@ -9225,16 +9227,16 @@
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="53" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="51" t="s">
+      <c r="D59" s="47"/>
+      <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="60"/>
       <c r="G59" s="20">
         <v>5</v>
       </c>
@@ -9351,16 +9353,16 @@
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="51" t="s">
+      <c r="D60" s="47"/>
+      <c r="E60" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="52"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="20">
         <v>5</v>
       </c>
@@ -9477,16 +9479,16 @@
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="53" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="51" t="s">
+      <c r="D61" s="47"/>
+      <c r="E61" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="52"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="20">
         <v>2</v>
       </c>
@@ -9603,16 +9605,16 @@
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="51" t="s">
+      <c r="D62" s="47"/>
+      <c r="E62" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F62" s="52"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="20">
         <v>2</v>
       </c>
@@ -9729,12 +9731,12 @@
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="53" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="53"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="55" t="s">
         <v>95</v>
       </c>
@@ -9855,12 +9857,12 @@
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -9903,18 +9905,18 @@
       <c r="AR64" s="20"/>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A65" s="54"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="48" t="s">
+      <c r="D65" s="47"/>
+      <c r="E65" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="48"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="20">
         <v>1</v>
       </c>
@@ -10031,16 +10033,16 @@
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="46"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="48" t="s">
+      <c r="D66" s="47"/>
+      <c r="E66" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="48"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="20">
         <v>1</v>
       </c>
@@ -10157,16 +10159,16 @@
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="53" t="s">
+      <c r="A67" s="46"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="48" t="s">
+      <c r="D67" s="47"/>
+      <c r="E67" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="48"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="20">
         <v>1</v>
       </c>
@@ -10283,16 +10285,16 @@
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="53" t="s">
+      <c r="A68" s="46"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="48" t="s">
+      <c r="D68" s="47"/>
+      <c r="E68" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="48"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="20">
         <v>1</v>
       </c>
@@ -10409,16 +10411,16 @@
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="46"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="48" t="s">
+      <c r="D69" s="47"/>
+      <c r="E69" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="48"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="20">
         <v>1</v>
       </c>
@@ -10535,16 +10537,16 @@
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="46"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="48" t="s">
+      <c r="D70" s="47"/>
+      <c r="E70" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="48"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="20">
         <v>1</v>
       </c>
@@ -10661,16 +10663,16 @@
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A71" s="54"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="49" t="s">
+      <c r="A71" s="46"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="51" t="s">
+      <c r="D71" s="51"/>
+      <c r="E71" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="52"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="20">
         <v>1</v>
       </c>
@@ -10787,16 +10789,16 @@
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="49" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="51" t="s">
+      <c r="D72" s="51"/>
+      <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="52"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="20">
         <v>1</v>
       </c>
@@ -10913,16 +10915,16 @@
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="53" t="s">
+      <c r="A73" s="46"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="51" t="s">
+      <c r="D73" s="47"/>
+      <c r="E73" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="52"/>
+      <c r="F73" s="60"/>
       <c r="G73" s="20">
         <v>1</v>
       </c>
@@ -11039,16 +11041,16 @@
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A74" s="54"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="51" t="s">
+      <c r="D74" s="51"/>
+      <c r="E74" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="52"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="20">
         <v>1</v>
       </c>
@@ -11165,18 +11167,18 @@
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="46"/>
+      <c r="B75" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="48" t="s">
+      <c r="D75" s="47"/>
+      <c r="E75" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="48"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="20">
         <v>1</v>
       </c>
@@ -11293,16 +11295,16 @@
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="53" t="s">
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="48" t="s">
+      <c r="D76" s="47"/>
+      <c r="E76" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="48"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="20">
         <v>1</v>
       </c>
@@ -11419,16 +11421,16 @@
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="53" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="48" t="s">
+      <c r="D77" s="47"/>
+      <c r="E77" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="48"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="20">
         <v>1</v>
       </c>
@@ -11545,16 +11547,16 @@
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="53" t="s">
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="48" t="s">
+      <c r="D78" s="47"/>
+      <c r="E78" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="48"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="20">
         <v>2</v>
       </c>
@@ -11671,16 +11673,16 @@
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="53" t="s">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="48" t="s">
+      <c r="D79" s="47"/>
+      <c r="E79" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F79" s="48"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="20">
         <v>2</v>
       </c>
@@ -11797,16 +11799,16 @@
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="56" t="s">
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="48" t="s">
+      <c r="D80" s="49"/>
+      <c r="E80" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F80" s="48"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="20">
         <v>2</v>
       </c>
@@ -11923,16 +11925,16 @@
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="56" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="48" t="s">
+      <c r="D81" s="49"/>
+      <c r="E81" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F81" s="48"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="20">
         <v>1</v>
       </c>
@@ -12049,16 +12051,16 @@
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="53" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="48" t="s">
+      <c r="D82" s="47"/>
+      <c r="E82" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F82" s="48"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="20">
         <v>2</v>
       </c>
@@ -12175,16 +12177,16 @@
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="53" t="s">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="48" t="s">
+      <c r="D83" s="47"/>
+      <c r="E83" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F83" s="48"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="20">
         <v>2</v>
       </c>
@@ -12301,14 +12303,14 @@
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54" t="s">
+      <c r="A84" s="46"/>
+      <c r="B84" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="53"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="55" t="s">
         <v>65</v>
       </c>
@@ -12429,12 +12431,12 @@
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="53" t="s">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="53"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="55" t="s">
         <v>65</v>
       </c>
@@ -12555,12 +12557,12 @@
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="53" t="s">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="53"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="55" t="s">
         <v>65</v>
       </c>
@@ -12681,12 +12683,12 @@
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="53" t="s">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="53"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="55" t="s">
         <v>65</v>
       </c>
@@ -12807,12 +12809,12 @@
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="53" t="s">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="53"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="55" t="s">
         <v>65</v>
       </c>
@@ -12933,12 +12935,12 @@
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="53" t="s">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="53"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="55" t="s">
         <v>61</v>
       </c>
@@ -13059,12 +13061,12 @@
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="56" t="s">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="57"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="55" t="s">
         <v>61</v>
       </c>
@@ -13185,12 +13187,12 @@
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="56" t="s">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="57"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="55" t="s">
         <v>61</v>
       </c>
@@ -13311,12 +13313,12 @@
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A92" s="54"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="53" t="s">
+      <c r="A92" s="46"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="53"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="55" t="s">
         <v>61</v>
       </c>
@@ -13437,14 +13439,14 @@
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54" t="s">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="53"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="55" t="s">
         <v>43</v>
       </c>
@@ -13565,12 +13567,12 @@
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A94" s="54"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="53" t="s">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="53"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="55" t="s">
         <v>43</v>
       </c>
@@ -13691,21 +13693,21 @@
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A95" s="54"/>
-      <c r="B95" s="65" t="s">
+      <c r="A95" s="46"/>
+      <c r="B95" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="58" t="s">
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58">
+      <c r="F95" s="56"/>
+      <c r="G95" s="56">
         <f>SUM(G15:G94)</f>
         <v>189</v>
       </c>
-      <c r="H95" s="58"/>
+      <c r="H95" s="56"/>
       <c r="I95" s="20">
         <f t="shared" ref="I95:P95" si="0">SUM(I15:I94)</f>
         <v>178</v>
@@ -13852,19 +13854,19 @@
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="58" t="s">
+      <c r="A96" s="46"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58">
+      <c r="F96" s="56"/>
+      <c r="G96" s="56">
         <f>SUM(H15:H94)</f>
         <v>186</v>
       </c>
-      <c r="H96" s="58"/>
+      <c r="H96" s="56"/>
       <c r="I96" s="20">
         <f>SUM(I15:I94)</f>
         <v>178</v>
@@ -14012,27 +14014,138 @@
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B31:B43"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B44:B64"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="A15:A96"/>
     <mergeCell ref="E92:F92"/>
     <mergeCell ref="E93:F93"/>
@@ -14057,139 +14170,28 @@
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="B95:D96"/>
     <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B44:B64"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B31:B43"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14198,10 +14200,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E12"/>
     </sheetView>
   </sheetViews>
@@ -14221,10 +14223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="35" t="s">
         <v>166</v>
       </c>
@@ -14235,10 +14237,10 @@
       </c>
     </row>
     <row r="2" spans="1:54" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="61"/>
       <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
@@ -14249,10 +14251,10 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61"/>
       <c r="C3" s="4">
         <v>45699</v>
       </c>
@@ -14263,11 +14265,11 @@
       </c>
     </row>
     <row r="4" spans="1:54" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="46">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="43">
         <v>46003</v>
       </c>
       <c r="D4" s="1"/>
@@ -14288,12 +14290,12 @@
     </row>
     <row r="6" spans="1:54" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:54" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -14380,10 +14382,10 @@
     </row>
     <row r="12" spans="1:54" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5">
         <f ca="1">SUM(D8:D11)</f>
         <v>101.5</v>
@@ -14401,14 +14403,14 @@
       <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="18" t="s">
         <v>10</v>
       </c>
@@ -14545,18 +14547,18 @@
       <c r="BB14" s="2"/>
     </row>
     <row r="15" spans="1:54" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="48" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="20">
         <v>10</v>
       </c>
@@ -14688,16 +14690,16 @@
       </c>
     </row>
     <row r="16" spans="1:54" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="48" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="20">
         <v>2</v>
       </c>
@@ -14829,12 +14831,12 @@
       </c>
     </row>
     <row r="17" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -14930,16 +14932,16 @@
       </c>
     </row>
     <row r="18" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="48" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="20">
         <v>4</v>
       </c>
@@ -15071,18 +15073,18 @@
       </c>
     </row>
     <row r="19" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="48" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -15214,16 +15216,16 @@
       </c>
     </row>
     <row r="20" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="48" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="20">
         <v>1</v>
       </c>
@@ -15355,16 +15357,16 @@
       </c>
     </row>
     <row r="21" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="20">
         <v>1</v>
       </c>
@@ -15496,16 +15498,16 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="53" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="48" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -15637,16 +15639,16 @@
       </c>
     </row>
     <row r="23" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="48" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="20">
         <v>1</v>
       </c>
@@ -15778,16 +15780,16 @@
       </c>
     </row>
     <row r="24" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="53" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="20">
         <v>1</v>
       </c>
@@ -15919,16 +15921,16 @@
       </c>
     </row>
     <row r="25" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="48" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="48"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="20">
         <v>1</v>
       </c>
@@ -16060,16 +16062,16 @@
       </c>
     </row>
     <row r="26" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="48" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="20">
         <v>5</v>
       </c>
@@ -16201,17 +16203,17 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="44">
+      <c r="K27" s="20">
         <v>0</v>
       </c>
       <c r="L27" s="20"/>
@@ -16304,18 +16306,18 @@
       </c>
     </row>
     <row r="28" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="48" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="20">
         <v>2</v>
       </c>
@@ -16447,12 +16449,12 @@
       </c>
     </row>
     <row r="29" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -16548,16 +16550,16 @@
       </c>
     </row>
     <row r="30" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="48" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="48"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="20">
         <v>1</v>
       </c>
@@ -16689,18 +16691,18 @@
       </c>
     </row>
     <row r="31" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="47"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -16790,16 +16792,16 @@
       </c>
     </row>
     <row r="32" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="53" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="48" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="20">
         <v>1</v>
       </c>
@@ -16931,12 +16933,12 @@
       </c>
     </row>
     <row r="33" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -17032,16 +17034,16 @@
       </c>
     </row>
     <row r="34" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="48" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="20">
         <v>1</v>
       </c>
@@ -17173,12 +17175,12 @@
       </c>
     </row>
     <row r="35" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -17274,16 +17276,16 @@
       </c>
     </row>
     <row r="36" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="53" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="48" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="48"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="20">
         <v>1</v>
       </c>
@@ -17415,12 +17417,12 @@
       </c>
     </row>
     <row r="37" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
@@ -17516,16 +17518,16 @@
       </c>
     </row>
     <row r="38" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="53" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="48" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="48"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="20">
         <v>1</v>
       </c>
@@ -17657,12 +17659,12 @@
       </c>
     </row>
     <row r="39" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -17758,16 +17760,16 @@
       </c>
     </row>
     <row r="40" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="53" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="48" t="s">
+      <c r="D40" s="47"/>
+      <c r="E40" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="48"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="20">
         <v>1</v>
       </c>
@@ -17899,19 +17901,19 @@
       </c>
     </row>
     <row r="41" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
-      <c r="M41" s="44"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
@@ -18000,16 +18002,16 @@
       </c>
     </row>
     <row r="42" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="53" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="48" t="s">
+      <c r="D42" s="47"/>
+      <c r="E42" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="48"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="20">
         <v>7</v>
       </c>
@@ -18141,12 +18143,12 @@
       </c>
     </row>
     <row r="43" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -18242,18 +18244,18 @@
       </c>
     </row>
     <row r="44" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="48" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
@@ -18385,12 +18387,12 @@
       </c>
     </row>
     <row r="45" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -18490,16 +18492,16 @@
       </c>
     </row>
     <row r="46" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="71" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="48" t="s">
+      <c r="D46" s="47"/>
+      <c r="E46" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="48"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="20">
         <v>3</v>
       </c>
@@ -18631,16 +18633,16 @@
       </c>
     </row>
     <row r="47" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="53" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="48" t="s">
+      <c r="D47" s="47"/>
+      <c r="E47" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="20">
         <v>2</v>
       </c>
@@ -18772,16 +18774,16 @@
       </c>
     </row>
     <row r="48" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="48" t="s">
+      <c r="D48" s="47"/>
+      <c r="E48" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="48"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="20">
         <v>6</v>
       </c>
@@ -18913,12 +18915,12 @@
       </c>
     </row>
     <row r="49" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -19014,16 +19016,16 @@
       </c>
     </row>
     <row r="50" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="71" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="48" t="s">
+      <c r="D50" s="47"/>
+      <c r="E50" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="48"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="20">
         <v>2</v>
       </c>
@@ -19155,16 +19157,16 @@
       </c>
     </row>
     <row r="51" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="75" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="67"/>
+      <c r="E51" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="48"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="20">
         <v>4</v>
       </c>
@@ -19264,16 +19266,16 @@
       </c>
     </row>
     <row r="52" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="48" t="s">
+      <c r="D52" s="47"/>
+      <c r="E52" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="48"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="20">
         <v>2</v>
       </c>
@@ -19405,16 +19407,16 @@
       </c>
     </row>
     <row r="53" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="49" t="s">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="48" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="20">
         <v>2</v>
       </c>
@@ -19546,12 +19548,12 @@
       </c>
     </row>
     <row r="54" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="52"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -19599,16 +19601,16 @@
       <c r="AW54" s="20"/>
     </row>
     <row r="55" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="49" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="48" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="48"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="20">
         <v>3</v>
       </c>
@@ -19740,16 +19742,16 @@
       </c>
     </row>
     <row r="56" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="49" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="48" t="s">
+      <c r="D56" s="51"/>
+      <c r="E56" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="48"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="20">
         <v>3</v>
       </c>
@@ -19881,12 +19883,12 @@
       </c>
     </row>
     <row r="57" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -19968,16 +19970,16 @@
       </c>
     </row>
     <row r="58" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="48" t="s">
+      <c r="D58" s="47"/>
+      <c r="E58" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="48"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="20">
         <v>4</v>
       </c>
@@ -20109,16 +20111,16 @@
       </c>
     </row>
     <row r="59" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="53" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="48" t="s">
+      <c r="D59" s="47"/>
+      <c r="E59" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="48"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="20">
         <v>2</v>
       </c>
@@ -20250,16 +20252,16 @@
       </c>
     </row>
     <row r="60" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="49" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="48" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="48"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="20">
         <v>2</v>
       </c>
@@ -20391,16 +20393,16 @@
       </c>
     </row>
     <row r="61" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="49" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="48" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="48"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="20">
         <v>2</v>
       </c>
@@ -20532,16 +20534,16 @@
       </c>
     </row>
     <row r="62" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="49" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="48" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F62" s="48"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="20">
         <v>10</v>
       </c>
@@ -20673,18 +20675,18 @@
       </c>
     </row>
     <row r="63" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="48" t="s">
+      <c r="D63" s="51"/>
+      <c r="E63" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="48"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="20">
         <v>1</v>
       </c>
@@ -20816,12 +20818,12 @@
       </c>
     </row>
     <row r="64" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -20837,7 +20839,7 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="47"/>
+      <c r="V64" s="44"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
@@ -20869,16 +20871,16 @@
       <c r="AW64" s="20"/>
     </row>
     <row r="65" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="48" t="s">
+      <c r="D65" s="47"/>
+      <c r="E65" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="48"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="20">
         <v>1</v>
       </c>
@@ -21010,12 +21012,12 @@
       </c>
     </row>
     <row r="66" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
@@ -21031,7 +21033,7 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="44"/>
+      <c r="V66" s="20"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
@@ -21063,16 +21065,16 @@
       <c r="AW66" s="20"/>
     </row>
     <row r="67" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="56" t="s">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="48" t="s">
+      <c r="D67" s="49"/>
+      <c r="E67" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="48"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="20">
         <v>1</v>
       </c>
@@ -21204,16 +21206,16 @@
       </c>
     </row>
     <row r="68" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="53" t="s">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="48" t="s">
+      <c r="D68" s="47"/>
+      <c r="E68" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="48"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="20">
         <v>1</v>
       </c>
@@ -21345,16 +21347,16 @@
       </c>
     </row>
     <row r="69" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="48" t="s">
+      <c r="D69" s="47"/>
+      <c r="E69" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="48"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="20">
         <v>1</v>
       </c>
@@ -21486,12 +21488,12 @@
       </c>
     </row>
     <row r="70" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -21507,7 +21509,7 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="44"/>
+      <c r="V70" s="20"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
@@ -21539,16 +21541,16 @@
       <c r="AW70" s="20"/>
     </row>
     <row r="71" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="53" t="s">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="48" t="s">
+      <c r="D71" s="47"/>
+      <c r="E71" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F71" s="48"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="20">
         <v>2</v>
       </c>
@@ -21680,16 +21682,16 @@
       </c>
     </row>
     <row r="72" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="53" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="48" t="s">
+      <c r="D72" s="47"/>
+      <c r="E72" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="48"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="20">
         <v>2</v>
       </c>
@@ -21821,18 +21823,18 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="48" t="s">
+      <c r="D73" s="51"/>
+      <c r="E73" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="F73" s="48"/>
+      <c r="F73" s="57"/>
       <c r="G73" s="20">
         <v>2</v>
       </c>
@@ -21964,16 +21966,16 @@
       </c>
     </row>
     <row r="74" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="48" t="s">
+      <c r="D74" s="47"/>
+      <c r="E74" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="48"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="20">
         <v>2</v>
       </c>
@@ -22105,16 +22107,16 @@
       </c>
     </row>
     <row r="75" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="56" t="s">
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="48" t="s">
+      <c r="D75" s="49"/>
+      <c r="E75" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="48"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="20">
         <v>1</v>
       </c>
@@ -22246,16 +22248,16 @@
       </c>
     </row>
     <row r="76" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="53" t="s">
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="48" t="s">
+      <c r="D76" s="47"/>
+      <c r="E76" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="48"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="20">
         <v>1</v>
       </c>
@@ -22376,7 +22378,7 @@
       <c r="AT76" s="21">
         <v>0</v>
       </c>
-      <c r="AU76" s="44">
+      <c r="AU76" s="20">
         <v>0</v>
       </c>
       <c r="AV76" s="20">
@@ -22387,16 +22389,16 @@
       </c>
     </row>
     <row r="77" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="53" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="48" t="s">
+      <c r="D77" s="47"/>
+      <c r="E77" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="48"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="20">
         <v>2</v>
       </c>
@@ -22528,16 +22530,16 @@
       </c>
     </row>
     <row r="78" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="53" t="s">
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="48" t="s">
+      <c r="D78" s="47"/>
+      <c r="E78" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F78" s="48"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="20">
         <v>2</v>
       </c>
@@ -22669,16 +22671,16 @@
       </c>
     </row>
     <row r="79" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="53" t="s">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="48" t="s">
+      <c r="D79" s="47"/>
+      <c r="E79" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F79" s="48"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="20">
         <v>2</v>
       </c>
@@ -22810,12 +22812,12 @@
       </c>
     </row>
     <row r="80" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
@@ -22833,7 +22835,7 @@
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
       <c r="W80" s="20"/>
-      <c r="X80" s="44"/>
+      <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20">
         <v>0</v>
@@ -22909,18 +22911,18 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="48" t="s">
+      <c r="D81" s="47"/>
+      <c r="E81" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="48"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="20">
         <v>5</v>
       </c>
@@ -23052,16 +23054,16 @@
       </c>
     </row>
     <row r="82" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="53" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="48" t="s">
+      <c r="D82" s="47"/>
+      <c r="E82" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="48"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="20">
         <v>5</v>
       </c>
@@ -23193,21 +23195,21 @@
       </c>
     </row>
     <row r="83" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="74" t="s">
+      <c r="A83" s="46"/>
+      <c r="B83" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="58" t="s">
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="58"/>
-      <c r="G83" s="48">
+      <c r="F83" s="56"/>
+      <c r="G83" s="57">
         <f>SUM(G15:G82)</f>
         <v>124</v>
       </c>
-      <c r="H83" s="48"/>
+      <c r="H83" s="57"/>
       <c r="I83" s="20">
         <f>SUM(I15:I82)</f>
         <v>108</v>
@@ -23221,7 +23223,7 @@
         <v>102</v>
       </c>
       <c r="L83" s="20">
-        <f t="shared" ref="K83:AW83" si="0">SUM(L15:L82)</f>
+        <f t="shared" ref="L83:AW83" si="0">SUM(L15:L82)</f>
         <v>100</v>
       </c>
       <c r="M83" s="20">
@@ -23374,19 +23376,19 @@
       </c>
     </row>
     <row r="84" spans="1:49" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="54"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="58" t="s">
+      <c r="A84" s="46"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="F84" s="58"/>
-      <c r="G84" s="48">
+      <c r="F84" s="56"/>
+      <c r="G84" s="57">
         <f>SUM(H15:H82)</f>
         <v>147</v>
       </c>
-      <c r="H84" s="48"/>
+      <c r="H84" s="57"/>
       <c r="I84" s="20">
         <f>SUM(I15:I82)</f>
         <v>108</v>
@@ -23553,29 +23555,124 @@
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B44:B62"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -23600,119 +23697,24 @@
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B44:B62"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -23721,10 +23723,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -23734,41 +23736,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="83"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
@@ -23907,10 +23909,10 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="78"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="E10" s="31" t="s">
